--- a/contratos/contratos-3-2015.xlsx
+++ b/contratos/contratos-3-2015.xlsx
@@ -802,7 +802,7 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
@@ -811,7 +811,7 @@
     <t>JOANNAS ROBERTO ABEL</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>COOPERATIVA ELECTRO CONCEPCION LTDA.</t>
@@ -874,7 +874,7 @@
     <t>BENEDETTI MIGUEL ANGEL</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>RADIO MECANO S.A.</t>
@@ -976,13 +976,13 @@
     <t>COBRE OSCAR CESAR</t>
   </si>
   <si>
-    <t>DODERA, JORGE ABELARDO</t>
-  </si>
-  <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
-  </si>
-  <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>DODERA. JORGE ABELARDO</t>
+  </si>
+  <si>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
+  </si>
+  <si>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -1423,637 +1423,637 @@
     <t>51</t>
   </si>
   <si>
-    <t>5.715,00</t>
-  </si>
-  <si>
-    <t>680,00</t>
-  </si>
-  <si>
-    <t>219.500,00</t>
-  </si>
-  <si>
-    <t>67.397,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>3.536,59</t>
-  </si>
-  <si>
-    <t>11.011,00</t>
-  </si>
-  <si>
-    <t>10.980,00</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>4.430,00</t>
-  </si>
-  <si>
-    <t>3.456,00</t>
-  </si>
-  <si>
-    <t>505,00</t>
-  </si>
-  <si>
-    <t>7.931,36</t>
-  </si>
-  <si>
-    <t>463.821,01</t>
-  </si>
-  <si>
-    <t>131.858,90</t>
-  </si>
-  <si>
-    <t>20.386,00</t>
-  </si>
-  <si>
-    <t>3.096,00</t>
-  </si>
-  <si>
-    <t>11.650,00</t>
-  </si>
-  <si>
-    <t>3.737,13</t>
-  </si>
-  <si>
-    <t>30.837,49</t>
-  </si>
-  <si>
-    <t>16.626,78</t>
-  </si>
-  <si>
-    <t>4.295,00</t>
-  </si>
-  <si>
-    <t>3.250,00</t>
-  </si>
-  <si>
-    <t>322,02</t>
-  </si>
-  <si>
-    <t>4.771,20</t>
-  </si>
-  <si>
-    <t>304,40</t>
-  </si>
-  <si>
-    <t>5.500,60</t>
-  </si>
-  <si>
-    <t>300,58</t>
-  </si>
-  <si>
-    <t>305,92</t>
-  </si>
-  <si>
-    <t>837,02</t>
-  </si>
-  <si>
-    <t>44,55</t>
-  </si>
-  <si>
-    <t>8.260,00</t>
-  </si>
-  <si>
-    <t>27.214,60</t>
-  </si>
-  <si>
-    <t>1.666,56</t>
-  </si>
-  <si>
-    <t>2.962,00</t>
-  </si>
-  <si>
-    <t>6.600,00</t>
-  </si>
-  <si>
-    <t>74.036,07</t>
-  </si>
-  <si>
-    <t>3.841,35</t>
-  </si>
-  <si>
-    <t>28,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>30.862,00</t>
-  </si>
-  <si>
-    <t>134.200,00</t>
-  </si>
-  <si>
-    <t>20.810,00</t>
-  </si>
-  <si>
-    <t>64.195,16</t>
-  </si>
-  <si>
-    <t>16.494,68</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>58,42</t>
-  </si>
-  <si>
-    <t>25.636,30</t>
-  </si>
-  <si>
-    <t>75.078,67</t>
-  </si>
-  <si>
-    <t>660,00</t>
-  </si>
-  <si>
-    <t>61.641,59</t>
-  </si>
-  <si>
-    <t>20.277,09</t>
-  </si>
-  <si>
-    <t>1.742,74</t>
-  </si>
-  <si>
-    <t>6.340,00</t>
-  </si>
-  <si>
-    <t>1.644,00</t>
-  </si>
-  <si>
-    <t>5.512,51</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>2.579,72</t>
-  </si>
-  <si>
-    <t>900,06</t>
-  </si>
-  <si>
-    <t>225,00</t>
-  </si>
-  <si>
-    <t>692,34</t>
-  </si>
-  <si>
-    <t>89,55</t>
-  </si>
-  <si>
-    <t>193,48</t>
-  </si>
-  <si>
-    <t>14.195,26</t>
-  </si>
-  <si>
-    <t>13.548,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>3.180,00</t>
-  </si>
-  <si>
-    <t>4.852,15</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>7.695,00</t>
-  </si>
-  <si>
-    <t>3.850,00</t>
-  </si>
-  <si>
-    <t>20.215,00</t>
-  </si>
-  <si>
-    <t>11.495,00</t>
-  </si>
-  <si>
-    <t>675,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>22.660,02</t>
-  </si>
-  <si>
-    <t>371.897,61</t>
-  </si>
-  <si>
-    <t>230,00</t>
-  </si>
-  <si>
-    <t>53.346,50</t>
-  </si>
-  <si>
-    <t>4.360,00</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>34,25</t>
-  </si>
-  <si>
-    <t>9.955,59</t>
-  </si>
-  <si>
-    <t>22,50</t>
-  </si>
-  <si>
-    <t>216,00</t>
-  </si>
-  <si>
-    <t>15.760,60</t>
-  </si>
-  <si>
-    <t>297,00</t>
-  </si>
-  <si>
-    <t>444,60</t>
-  </si>
-  <si>
-    <t>59,40</t>
-  </si>
-  <si>
-    <t>1.460,25</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>290,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>2.492,00</t>
-  </si>
-  <si>
-    <t>3.840,00</t>
-  </si>
-  <si>
-    <t>2.700,00</t>
-  </si>
-  <si>
-    <t>25.678,54</t>
-  </si>
-  <si>
-    <t>1.813,25</t>
-  </si>
-  <si>
-    <t>4.272,70</t>
-  </si>
-  <si>
-    <t>38,60</t>
-  </si>
-  <si>
-    <t>4.130,00</t>
-  </si>
-  <si>
-    <t>115,00</t>
-  </si>
-  <si>
-    <t>22.682,00</t>
-  </si>
-  <si>
-    <t>760,00</t>
-  </si>
-  <si>
-    <t>378,00</t>
-  </si>
-  <si>
-    <t>4.819,67</t>
-  </si>
-  <si>
-    <t>8.960,00</t>
-  </si>
-  <si>
-    <t>1.560,60</t>
-  </si>
-  <si>
-    <t>2.560,00</t>
-  </si>
-  <si>
-    <t>44.606,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>3.170,00</t>
-  </si>
-  <si>
-    <t>24.200,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>2.935,36</t>
-  </si>
-  <si>
-    <t>850,72</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>3.404,72</t>
-  </si>
-  <si>
-    <t>5.248,33</t>
-  </si>
-  <si>
-    <t>4.547,26</t>
-  </si>
-  <si>
-    <t>1.075,12</t>
-  </si>
-  <si>
-    <t>792.000,00</t>
-  </si>
-  <si>
-    <t>81.001,58</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>3.150,00</t>
-  </si>
-  <si>
-    <t>12.500,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>2.500,00</t>
-  </si>
-  <si>
-    <t>52.637,69</t>
-  </si>
-  <si>
-    <t>3.146,00</t>
-  </si>
-  <si>
-    <t>22.264,00</t>
-  </si>
-  <si>
-    <t>1.105,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>2.250,00</t>
-  </si>
-  <si>
-    <t>42.300,00</t>
-  </si>
-  <si>
-    <t>10.500,00</t>
-  </si>
-  <si>
-    <t>2.850,00</t>
-  </si>
-  <si>
-    <t>3.520,00</t>
-  </si>
-  <si>
-    <t>2.600,00</t>
-  </si>
-  <si>
-    <t>7.118,00</t>
-  </si>
-  <si>
-    <t>1.830,40</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>45.480,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>1.210,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>5.600,00</t>
-  </si>
-  <si>
-    <t>10.783,00</t>
-  </si>
-  <si>
-    <t>2.680,00</t>
-  </si>
-  <si>
-    <t>278,49</t>
-  </si>
-  <si>
-    <t>15.315,00</t>
-  </si>
-  <si>
-    <t>1.040,40</t>
-  </si>
-  <si>
-    <t>4.040,00</t>
-  </si>
-  <si>
-    <t>3.350,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>1.042,00</t>
-  </si>
-  <si>
-    <t>1.402,00</t>
-  </si>
-  <si>
-    <t>4.456,04</t>
-  </si>
-  <si>
-    <t>16.818,20</t>
-  </si>
-  <si>
-    <t>2.546,00</t>
-  </si>
-  <si>
-    <t>1.364,00</t>
-  </si>
-  <si>
-    <t>13.920,06</t>
-  </si>
-  <si>
-    <t>57,56</t>
-  </si>
-  <si>
-    <t>2.085,64</t>
-  </si>
-  <si>
-    <t>52,05</t>
-  </si>
-  <si>
-    <t>184,60</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>768,00</t>
-  </si>
-  <si>
-    <t>26.860,00</t>
-  </si>
-  <si>
-    <t>64.349,31</t>
-  </si>
-  <si>
-    <t>601,95</t>
-  </si>
-  <si>
-    <t>515,00</t>
-  </si>
-  <si>
-    <t>2.086,23</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>684.950,33</t>
-  </si>
-  <si>
-    <t>117.900,00</t>
-  </si>
-  <si>
-    <t>50,76</t>
-  </si>
-  <si>
-    <t>62.330,24</t>
-  </si>
-  <si>
-    <t>179.336,00</t>
-  </si>
-  <si>
-    <t>370.836,00</t>
-  </si>
-  <si>
-    <t>67.862,00</t>
-  </si>
-  <si>
-    <t>92.780,00</t>
-  </si>
-  <si>
-    <t>27.000,00</t>
-  </si>
-  <si>
-    <t>264.898,60</t>
-  </si>
-  <si>
-    <t>10.450,00</t>
-  </si>
-  <si>
-    <t>47.000,00</t>
-  </si>
-  <si>
-    <t>244.344,00</t>
-  </si>
-  <si>
-    <t>137.948,00</t>
-  </si>
-  <si>
-    <t>268.304,00</t>
-  </si>
-  <si>
-    <t>3.119.696,84</t>
-  </si>
-  <si>
-    <t>143.200,00</t>
-  </si>
-  <si>
-    <t>212.700,00</t>
-  </si>
-  <si>
-    <t>85.000,00</t>
-  </si>
-  <si>
-    <t>79.977,24</t>
-  </si>
-  <si>
-    <t>178.123,09</t>
-  </si>
-  <si>
-    <t>5.004,40</t>
-  </si>
-  <si>
-    <t>2.160,00</t>
-  </si>
-  <si>
-    <t>2.770,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>42.940,39</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>104.900,00</t>
-  </si>
-  <si>
-    <t>44.100,84</t>
-  </si>
-  <si>
-    <t>12.600,00</t>
-  </si>
-  <si>
-    <t>4.840,00</t>
-  </si>
-  <si>
-    <t>2.480,00</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>7.888,00</t>
+    <t>5715.00</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>219500.00</t>
+  </si>
+  <si>
+    <t>67397.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>3536.59</t>
+  </si>
+  <si>
+    <t>11011.00</t>
+  </si>
+  <si>
+    <t>10980.00</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>4430.00</t>
+  </si>
+  <si>
+    <t>3456.00</t>
+  </si>
+  <si>
+    <t>505.00</t>
+  </si>
+  <si>
+    <t>7931.36</t>
+  </si>
+  <si>
+    <t>463821.01</t>
+  </si>
+  <si>
+    <t>131858.90</t>
+  </si>
+  <si>
+    <t>20386.00</t>
+  </si>
+  <si>
+    <t>3096.00</t>
+  </si>
+  <si>
+    <t>11650.00</t>
+  </si>
+  <si>
+    <t>3737.13</t>
+  </si>
+  <si>
+    <t>30837.49</t>
+  </si>
+  <si>
+    <t>16626.78</t>
+  </si>
+  <si>
+    <t>4295.00</t>
+  </si>
+  <si>
+    <t>3250.00</t>
+  </si>
+  <si>
+    <t>322.02</t>
+  </si>
+  <si>
+    <t>4771.20</t>
+  </si>
+  <si>
+    <t>304.40</t>
+  </si>
+  <si>
+    <t>5500.60</t>
+  </si>
+  <si>
+    <t>300.58</t>
+  </si>
+  <si>
+    <t>305.92</t>
+  </si>
+  <si>
+    <t>837.02</t>
+  </si>
+  <si>
+    <t>44.55</t>
+  </si>
+  <si>
+    <t>8260.00</t>
+  </si>
+  <si>
+    <t>27214.60</t>
+  </si>
+  <si>
+    <t>1666.56</t>
+  </si>
+  <si>
+    <t>2962.00</t>
+  </si>
+  <si>
+    <t>6600.00</t>
+  </si>
+  <si>
+    <t>74036.07</t>
+  </si>
+  <si>
+    <t>3841.35</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>30862.00</t>
+  </si>
+  <si>
+    <t>134200.00</t>
+  </si>
+  <si>
+    <t>20810.00</t>
+  </si>
+  <si>
+    <t>64195.16</t>
+  </si>
+  <si>
+    <t>16494.68</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>58.42</t>
+  </si>
+  <si>
+    <t>25636.30</t>
+  </si>
+  <si>
+    <t>75078.67</t>
+  </si>
+  <si>
+    <t>660.00</t>
+  </si>
+  <si>
+    <t>61641.59</t>
+  </si>
+  <si>
+    <t>20277.09</t>
+  </si>
+  <si>
+    <t>1742.74</t>
+  </si>
+  <si>
+    <t>6340.00</t>
+  </si>
+  <si>
+    <t>1644.00</t>
+  </si>
+  <si>
+    <t>5512.51</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>2579.72</t>
+  </si>
+  <si>
+    <t>900.06</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>692.34</t>
+  </si>
+  <si>
+    <t>89.55</t>
+  </si>
+  <si>
+    <t>193.48</t>
+  </si>
+  <si>
+    <t>14195.26</t>
+  </si>
+  <si>
+    <t>13548.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>3180.00</t>
+  </si>
+  <si>
+    <t>4852.15</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>7695.00</t>
+  </si>
+  <si>
+    <t>3850.00</t>
+  </si>
+  <si>
+    <t>20215.00</t>
+  </si>
+  <si>
+    <t>11495.00</t>
+  </si>
+  <si>
+    <t>675.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>22660.02</t>
+  </si>
+  <si>
+    <t>371897.61</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>53346.50</t>
+  </si>
+  <si>
+    <t>4360.00</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>34.25</t>
+  </si>
+  <si>
+    <t>9955.59</t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
+    <t>216.00</t>
+  </si>
+  <si>
+    <t>15760.60</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>444.60</t>
+  </si>
+  <si>
+    <t>59.40</t>
+  </si>
+  <si>
+    <t>1460.25</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>2492.00</t>
+  </si>
+  <si>
+    <t>3840.00</t>
+  </si>
+  <si>
+    <t>2700.00</t>
+  </si>
+  <si>
+    <t>25678.54</t>
+  </si>
+  <si>
+    <t>1813.25</t>
+  </si>
+  <si>
+    <t>4272.70</t>
+  </si>
+  <si>
+    <t>38.60</t>
+  </si>
+  <si>
+    <t>4130.00</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>22682.00</t>
+  </si>
+  <si>
+    <t>760.00</t>
+  </si>
+  <si>
+    <t>378.00</t>
+  </si>
+  <si>
+    <t>4819.67</t>
+  </si>
+  <si>
+    <t>8960.00</t>
+  </si>
+  <si>
+    <t>1560.60</t>
+  </si>
+  <si>
+    <t>2560.00</t>
+  </si>
+  <si>
+    <t>44606.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>3170.00</t>
+  </si>
+  <si>
+    <t>24200.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>2935.36</t>
+  </si>
+  <si>
+    <t>850.72</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>3404.72</t>
+  </si>
+  <si>
+    <t>5248.33</t>
+  </si>
+  <si>
+    <t>4547.26</t>
+  </si>
+  <si>
+    <t>1075.12</t>
+  </si>
+  <si>
+    <t>792000.00</t>
+  </si>
+  <si>
+    <t>81001.58</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>3150.00</t>
+  </si>
+  <si>
+    <t>12500.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>2500.00</t>
+  </si>
+  <si>
+    <t>52637.69</t>
+  </si>
+  <si>
+    <t>3146.00</t>
+  </si>
+  <si>
+    <t>22264.00</t>
+  </si>
+  <si>
+    <t>1105.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>42300.00</t>
+  </si>
+  <si>
+    <t>10500.00</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>3520.00</t>
+  </si>
+  <si>
+    <t>2600.00</t>
+  </si>
+  <si>
+    <t>7118.00</t>
+  </si>
+  <si>
+    <t>1830.40</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>45480.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>1210.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>10783.00</t>
+  </si>
+  <si>
+    <t>2680.00</t>
+  </si>
+  <si>
+    <t>278.49</t>
+  </si>
+  <si>
+    <t>15315.00</t>
+  </si>
+  <si>
+    <t>1040.40</t>
+  </si>
+  <si>
+    <t>4040.00</t>
+  </si>
+  <si>
+    <t>3350.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>1042.00</t>
+  </si>
+  <si>
+    <t>1402.00</t>
+  </si>
+  <si>
+    <t>4456.04</t>
+  </si>
+  <si>
+    <t>16818.20</t>
+  </si>
+  <si>
+    <t>2546.00</t>
+  </si>
+  <si>
+    <t>1364.00</t>
+  </si>
+  <si>
+    <t>13920.06</t>
+  </si>
+  <si>
+    <t>57.56</t>
+  </si>
+  <si>
+    <t>2085.64</t>
+  </si>
+  <si>
+    <t>52.05</t>
+  </si>
+  <si>
+    <t>184.60</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>768.00</t>
+  </si>
+  <si>
+    <t>26860.00</t>
+  </si>
+  <si>
+    <t>64349.31</t>
+  </si>
+  <si>
+    <t>601.95</t>
+  </si>
+  <si>
+    <t>515.00</t>
+  </si>
+  <si>
+    <t>2086.23</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>684950.33</t>
+  </si>
+  <si>
+    <t>117900.00</t>
+  </si>
+  <si>
+    <t>50.76</t>
+  </si>
+  <si>
+    <t>62330.24</t>
+  </si>
+  <si>
+    <t>179336.00</t>
+  </si>
+  <si>
+    <t>370836.00</t>
+  </si>
+  <si>
+    <t>67862.00</t>
+  </si>
+  <si>
+    <t>92780.00</t>
+  </si>
+  <si>
+    <t>27000.00</t>
+  </si>
+  <si>
+    <t>264898.60</t>
+  </si>
+  <si>
+    <t>10450.00</t>
+  </si>
+  <si>
+    <t>47000.00</t>
+  </si>
+  <si>
+    <t>244344.00</t>
+  </si>
+  <si>
+    <t>137948.00</t>
+  </si>
+  <si>
+    <t>268304.00</t>
+  </si>
+  <si>
+    <t>3119696.84</t>
+  </si>
+  <si>
+    <t>143200.00</t>
+  </si>
+  <si>
+    <t>212700.00</t>
+  </si>
+  <si>
+    <t>85000.00</t>
+  </si>
+  <si>
+    <t>79977.24</t>
+  </si>
+  <si>
+    <t>178123.09</t>
+  </si>
+  <si>
+    <t>5004.40</t>
+  </si>
+  <si>
+    <t>2160.00</t>
+  </si>
+  <si>
+    <t>2770.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>42940.39</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>104900.00</t>
+  </si>
+  <si>
+    <t>44100.84</t>
+  </si>
+  <si>
+    <t>12600.00</t>
+  </si>
+  <si>
+    <t>4840.00</t>
+  </si>
+  <si>
+    <t>2480.00</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>7888.00</t>
   </si>
 </sst>
 </file>
